--- a/data/pca/factorExposure/factorExposure_2013-05-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-23.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001121171581852139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002011366807548255</v>
+      </c>
+      <c r="C2">
+        <v>-0.03211579312820968</v>
+      </c>
+      <c r="D2">
+        <v>0.005573971992370989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001477143611533706</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006015304483750062</v>
+      </c>
+      <c r="C4">
+        <v>-0.08352110271985619</v>
+      </c>
+      <c r="D4">
+        <v>0.08013521808769004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>8.557948265558847e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01347101837571499</v>
+      </c>
+      <c r="C6">
+        <v>-0.1070674789413967</v>
+      </c>
+      <c r="D6">
+        <v>0.03624078385155285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001751675993421875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004813417900146543</v>
+      </c>
+      <c r="C7">
+        <v>-0.0516028526914236</v>
+      </c>
+      <c r="D7">
+        <v>0.03819496663039238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001654743114703181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005693569873895759</v>
+      </c>
+      <c r="C8">
+        <v>-0.03676815789513763</v>
+      </c>
+      <c r="D8">
+        <v>0.03926896402012086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004681611078308696</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.00399089584375478</v>
+      </c>
+      <c r="C9">
+        <v>-0.06849319242548026</v>
+      </c>
+      <c r="D9">
+        <v>0.0707775976527707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.003218375930325577</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005810536502814803</v>
+      </c>
+      <c r="C10">
+        <v>-0.07570291935465207</v>
+      </c>
+      <c r="D10">
+        <v>-0.2110191745829489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.004633453848183903</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005132567058513617</v>
+      </c>
+      <c r="C11">
+        <v>-0.07784165680203987</v>
+      </c>
+      <c r="D11">
+        <v>0.06421004453480096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0006642239929181188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003821676352894225</v>
+      </c>
+      <c r="C12">
+        <v>-0.06279153370451643</v>
+      </c>
+      <c r="D12">
+        <v>0.04604445214678781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003613794345260355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008673113849673597</v>
+      </c>
+      <c r="C13">
+        <v>-0.06880453544934786</v>
+      </c>
+      <c r="D13">
+        <v>0.07062056254582372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002552031925490222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001539782360199919</v>
+      </c>
+      <c r="C14">
+        <v>-0.04577160580851212</v>
+      </c>
+      <c r="D14">
+        <v>0.01419504046859412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.002579855822496073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005865200836202719</v>
+      </c>
+      <c r="C15">
+        <v>-0.03854079264392464</v>
+      </c>
+      <c r="D15">
+        <v>0.03866799471776861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002615037627875172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004846017091970447</v>
+      </c>
+      <c r="C16">
+        <v>-0.06397354399902169</v>
+      </c>
+      <c r="D16">
+        <v>0.04877444312968628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0007461804839378334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008984119625271732</v>
+      </c>
+      <c r="C20">
+        <v>-0.06441250866406838</v>
+      </c>
+      <c r="D20">
+        <v>0.05586307394475242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.004346984727405467</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009930014293269644</v>
+      </c>
+      <c r="C21">
+        <v>-0.02286130560071458</v>
+      </c>
+      <c r="D21">
+        <v>0.03643558662869763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01632895028956769</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006883087281241936</v>
+      </c>
+      <c r="C22">
+        <v>-0.09189356330901872</v>
+      </c>
+      <c r="D22">
+        <v>0.101459260268733</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01667453300529662</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006673557077931908</v>
+      </c>
+      <c r="C23">
+        <v>-0.0929506495261344</v>
+      </c>
+      <c r="D23">
+        <v>0.1020665299507496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003175477004379764</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004779126864911476</v>
+      </c>
+      <c r="C24">
+        <v>-0.07210464768197698</v>
+      </c>
+      <c r="D24">
+        <v>0.06090103350535421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004712219321018044</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002795116437838198</v>
+      </c>
+      <c r="C25">
+        <v>-0.07685434927414392</v>
+      </c>
+      <c r="D25">
+        <v>0.06569470471465343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00595725516447452</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003579350983765393</v>
+      </c>
+      <c r="C26">
+        <v>-0.04099168835850908</v>
+      </c>
+      <c r="D26">
+        <v>0.02859907880977348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007273333308740704</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0001936583792157843</v>
+      </c>
+      <c r="C28">
+        <v>-0.1274814796752756</v>
+      </c>
+      <c r="D28">
+        <v>-0.3076808656341746</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.002499309913617165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003330061019763429</v>
+      </c>
+      <c r="C29">
+        <v>-0.04790465541160539</v>
+      </c>
+      <c r="D29">
+        <v>0.01605882457507804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004304301842221018</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008726052053071949</v>
+      </c>
+      <c r="C30">
+        <v>-0.1361588634477102</v>
+      </c>
+      <c r="D30">
+        <v>0.1107158323268407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0002513985421938691</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006108803142581731</v>
+      </c>
+      <c r="C31">
+        <v>-0.04542365487776223</v>
+      </c>
+      <c r="D31">
+        <v>0.03253447061689797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001831912114294575</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003914439237964193</v>
+      </c>
+      <c r="C32">
+        <v>-0.04061221392478622</v>
+      </c>
+      <c r="D32">
+        <v>0.01256236163360991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002946740152333022</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007714152009604263</v>
+      </c>
+      <c r="C33">
+        <v>-0.08234437023536925</v>
+      </c>
+      <c r="D33">
+        <v>0.07561177275300231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005217756520526926</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003698092501728183</v>
+      </c>
+      <c r="C34">
+        <v>-0.05668963887506229</v>
+      </c>
+      <c r="D34">
+        <v>0.04615551275172117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.003452017907203799</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004767696227065254</v>
+      </c>
+      <c r="C35">
+        <v>-0.03799031990206737</v>
+      </c>
+      <c r="D35">
+        <v>0.01274605778933284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004330862560676868</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001350167563449823</v>
+      </c>
+      <c r="C36">
+        <v>-0.02342299448600549</v>
+      </c>
+      <c r="D36">
+        <v>0.02140437525971653</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002285048059046462</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009390149532012235</v>
+      </c>
+      <c r="C38">
+        <v>-0.03351703701742138</v>
+      </c>
+      <c r="D38">
+        <v>0.02372358293008531</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01308481462392929</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0009574559092818062</v>
+      </c>
+      <c r="C39">
+        <v>-0.1140376281677026</v>
+      </c>
+      <c r="D39">
+        <v>0.08345956710032318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007484442132084395</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002358137582677929</v>
+      </c>
+      <c r="C40">
+        <v>-0.08718462535316708</v>
+      </c>
+      <c r="D40">
+        <v>0.02688359400635925</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>2.167216244362029e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007364247015051592</v>
+      </c>
+      <c r="C41">
+        <v>-0.03845264870835849</v>
+      </c>
+      <c r="D41">
+        <v>0.03596904483024567</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002738922304623224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003366542464931769</v>
+      </c>
+      <c r="C43">
+        <v>-0.05024428881972445</v>
+      </c>
+      <c r="D43">
+        <v>0.02839141942173838</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004292524010203902</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003727968098459532</v>
+      </c>
+      <c r="C44">
+        <v>-0.1081608197399816</v>
+      </c>
+      <c r="D44">
+        <v>0.08488327416931699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002286834353800664</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002357292380938054</v>
+      </c>
+      <c r="C46">
+        <v>-0.03491244340845229</v>
+      </c>
+      <c r="D46">
+        <v>0.0346570223726001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0008074030100380469</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002880536267828369</v>
+      </c>
+      <c r="C47">
+        <v>-0.03950141620026388</v>
+      </c>
+      <c r="D47">
+        <v>0.02536092486543354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004146736461618211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006422083693000383</v>
+      </c>
+      <c r="C48">
+        <v>-0.02871267866645433</v>
+      </c>
+      <c r="D48">
+        <v>0.03047298709874164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01308351844998758</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01405016904916121</v>
+      </c>
+      <c r="C49">
+        <v>-0.1708686407267037</v>
+      </c>
+      <c r="D49">
+        <v>0.03438890600144412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-5.702903623310439e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003696152686062031</v>
+      </c>
+      <c r="C50">
+        <v>-0.04206133611614719</v>
+      </c>
+      <c r="D50">
+        <v>0.03624083599011667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.002033550008537785</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004145251653280492</v>
+      </c>
+      <c r="C51">
+        <v>-0.01957125171186554</v>
+      </c>
+      <c r="D51">
+        <v>0.03285943648743329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.00148131919763663</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02039192594091936</v>
+      </c>
+      <c r="C53">
+        <v>-0.1645343427773842</v>
+      </c>
+      <c r="D53">
+        <v>0.05310558440612451</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0003447839887406228</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008579274111381466</v>
+      </c>
+      <c r="C54">
+        <v>-0.05563373869610289</v>
+      </c>
+      <c r="D54">
+        <v>0.04221282909988895</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004666381773722918</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009433495981715945</v>
+      </c>
+      <c r="C55">
+        <v>-0.1049326480402149</v>
+      </c>
+      <c r="D55">
+        <v>0.0530808894402204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.00361998178903323</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01967452945176763</v>
+      </c>
+      <c r="C56">
+        <v>-0.1712740283344898</v>
+      </c>
+      <c r="D56">
+        <v>0.05017340857391644</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007355975492740218</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01938050718974433</v>
+      </c>
+      <c r="C58">
+        <v>-0.1009530184473156</v>
+      </c>
+      <c r="D58">
+        <v>0.07744973567932373</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.00890330488228944</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009777416034391221</v>
+      </c>
+      <c r="C59">
+        <v>-0.1707113569887308</v>
+      </c>
+      <c r="D59">
+        <v>-0.2797078441780985</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.00667523037019201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02347192489160655</v>
+      </c>
+      <c r="C60">
+        <v>-0.2213718590111456</v>
+      </c>
+      <c r="D60">
+        <v>0.02895923057190518</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01472633722849925</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.00197823426778032</v>
+      </c>
+      <c r="C61">
+        <v>-0.09405944105989261</v>
+      </c>
+      <c r="D61">
+        <v>0.06258817961461134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1818532876232448</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1437463697096707</v>
+      </c>
+      <c r="C62">
+        <v>-0.07647763528279378</v>
+      </c>
+      <c r="D62">
+        <v>0.05437266767630113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001396279956484419</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006385100713980456</v>
+      </c>
+      <c r="C63">
+        <v>-0.05896700692956088</v>
+      </c>
+      <c r="D63">
+        <v>0.02552490143327291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.00718837773862598</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01472453073206662</v>
+      </c>
+      <c r="C64">
+        <v>-0.1024611973795955</v>
+      </c>
+      <c r="D64">
+        <v>0.06517770267469053</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0007916930128676086</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01713197198569579</v>
+      </c>
+      <c r="C65">
+        <v>-0.1137868540832094</v>
+      </c>
+      <c r="D65">
+        <v>0.02999217579830653</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008710291691378092</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01216515915602693</v>
+      </c>
+      <c r="C66">
+        <v>-0.1521846996138447</v>
+      </c>
+      <c r="D66">
+        <v>0.1219121686468994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002541863377654029</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01547063443454092</v>
+      </c>
+      <c r="C67">
+        <v>-0.06279064169677746</v>
+      </c>
+      <c r="D67">
+        <v>0.03518870128024753</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.009062722548106165</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001508943476033841</v>
+      </c>
+      <c r="C68">
+        <v>-0.1100648904301473</v>
+      </c>
+      <c r="D68">
+        <v>-0.2607285211665587</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002456613748801378</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005829368368452225</v>
+      </c>
+      <c r="C69">
+        <v>-0.04717246695229587</v>
+      </c>
+      <c r="D69">
+        <v>0.04280035655558385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001721997533742653</v>
+      </c>
+      <c r="C70">
+        <v>-0.00181292917520798</v>
+      </c>
+      <c r="D70">
+        <v>0.001930821110296232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.005129657910655001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006357655393503029</v>
+      </c>
+      <c r="C71">
+        <v>-0.11283520626986</v>
+      </c>
+      <c r="D71">
+        <v>-0.2830239918793657</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008777377074734992</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01539760078684488</v>
+      </c>
+      <c r="C72">
+        <v>-0.1504766191846102</v>
+      </c>
+      <c r="D72">
+        <v>0.02590528129937527</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.0132498934445672</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02927234674021576</v>
+      </c>
+      <c r="C73">
+        <v>-0.2812117588619362</v>
+      </c>
+      <c r="D73">
+        <v>0.0513104373313099</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004411140347430305</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.00153210052533539</v>
+      </c>
+      <c r="C74">
+        <v>-0.104316519336614</v>
+      </c>
+      <c r="D74">
+        <v>0.04347901011742925</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006460513082651145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01075668613366418</v>
+      </c>
+      <c r="C75">
+        <v>-0.1310608834733693</v>
+      </c>
+      <c r="D75">
+        <v>0.03733068807933243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01182881526168002</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02138817208173376</v>
+      </c>
+      <c r="C76">
+        <v>-0.1451043703255273</v>
+      </c>
+      <c r="D76">
+        <v>0.07425992380875072</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.002290605845218494</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02422222566472633</v>
+      </c>
+      <c r="C77">
+        <v>-0.1316814586831302</v>
+      </c>
+      <c r="D77">
+        <v>0.06452252570553969</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0003583290907701619</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01412198051831927</v>
+      </c>
+      <c r="C78">
+        <v>-0.090638504521073</v>
+      </c>
+      <c r="D78">
+        <v>0.07041231562762691</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02733764554965543</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.0368634662698582</v>
+      </c>
+      <c r="C79">
+        <v>-0.155650872346333</v>
+      </c>
+      <c r="D79">
+        <v>0.03500298066867522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005360602055369606</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01066118844213194</v>
+      </c>
+      <c r="C80">
+        <v>-0.04163613865760377</v>
+      </c>
+      <c r="D80">
+        <v>0.03269224025869175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0001191995414962128</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01462318684657407</v>
+      </c>
+      <c r="C81">
+        <v>-0.1208032029931311</v>
+      </c>
+      <c r="D81">
+        <v>0.05644793723209421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006471756886733547</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01957308745170128</v>
+      </c>
+      <c r="C82">
+        <v>-0.1414353976091391</v>
+      </c>
+      <c r="D82">
+        <v>0.04895993675907623</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.00588740847664384</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009684078628991821</v>
+      </c>
+      <c r="C83">
+        <v>-0.05574469227912021</v>
+      </c>
+      <c r="D83">
+        <v>0.0520272546635205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.0144524808636308</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01167862974973877</v>
+      </c>
+      <c r="C84">
+        <v>-0.03007134235509145</v>
+      </c>
+      <c r="D84">
+        <v>-0.0002113468457058963</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01584581111441011</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02796047059957257</v>
+      </c>
+      <c r="C85">
+        <v>-0.1278221904886313</v>
+      </c>
+      <c r="D85">
+        <v>0.05265147381886222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002950106702651745</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005530857600655004</v>
+      </c>
+      <c r="C86">
+        <v>-0.0494476505256982</v>
+      </c>
+      <c r="D86">
+        <v>0.02391569343108817</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007674299647339471</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01011515397231243</v>
+      </c>
+      <c r="C87">
+        <v>-0.1272430048373701</v>
+      </c>
+      <c r="D87">
+        <v>0.08152088362016364</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01430832680728086</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002886075865034966</v>
+      </c>
+      <c r="C88">
+        <v>-0.06879331294119347</v>
+      </c>
+      <c r="D88">
+        <v>0.01770595078152213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01796342155141912</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0008337669263290382</v>
+      </c>
+      <c r="C89">
+        <v>-0.1637786459155576</v>
+      </c>
+      <c r="D89">
+        <v>-0.3437947781963641</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.005273639680246339</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007620206677435347</v>
+      </c>
+      <c r="C90">
+        <v>-0.1426241145280347</v>
+      </c>
+      <c r="D90">
+        <v>-0.3159250741082834</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.00189286360987653</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01027557638826852</v>
+      </c>
+      <c r="C91">
+        <v>-0.1043495583751026</v>
+      </c>
+      <c r="D91">
+        <v>0.0204647613423873</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01463151172742771</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0006586653382957761</v>
+      </c>
+      <c r="C92">
+        <v>-0.1528510951304921</v>
+      </c>
+      <c r="D92">
+        <v>-0.3270361518437069</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.003335393602283715</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005647909548016656</v>
+      </c>
+      <c r="C93">
+        <v>-0.1260177298222179</v>
+      </c>
+      <c r="D93">
+        <v>-0.3115560211679873</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004044442665843002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02229497564022543</v>
+      </c>
+      <c r="C94">
+        <v>-0.1569387035966492</v>
+      </c>
+      <c r="D94">
+        <v>0.035778730549751</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.0046966403585819</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01600290441740312</v>
+      </c>
+      <c r="C95">
+        <v>-0.1242375624470374</v>
+      </c>
+      <c r="D95">
+        <v>0.07071501106032552</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002411026194152539</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03453442635658917</v>
+      </c>
+      <c r="C97">
+        <v>-0.1782483618634632</v>
+      </c>
+      <c r="D97">
+        <v>0.04398376777862562</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.006468104895716271</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03574146039369792</v>
+      </c>
+      <c r="C98">
+        <v>-0.2553120199303887</v>
+      </c>
+      <c r="D98">
+        <v>0.04262585071287015</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9809169426682103</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827026711645884</v>
+      </c>
+      <c r="C99">
+        <v>0.109728703105513</v>
+      </c>
+      <c r="D99">
+        <v>-0.03250220883411691</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.002458101947133221</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.00337098611154792</v>
+      </c>
+      <c r="C101">
+        <v>-0.04792332349629219</v>
+      </c>
+      <c r="D101">
+        <v>0.0164287196646933</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
